--- a/Selenium/samples/excel.xlsx
+++ b/Selenium/samples/excel.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\我的雲端硬碟\Share\Course Share\Python\2024_Q1\chutax_2024_Q1\Data\samples\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roy\Documents\git\Python\Selenium\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D115A02B-86AE-4447-844B-F636798A3487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" firstSheet="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="員工資料" sheetId="1" r:id="rId1"/>
+    <sheet name="部門" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,57 +32,139 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>a1</t>
-  </si>
-  <si>
-    <t>b1</t>
-  </si>
-  <si>
-    <t>c1</t>
-  </si>
-  <si>
-    <t>a2</t>
-  </si>
-  <si>
-    <t>b2</t>
-  </si>
-  <si>
-    <t>c2</t>
-  </si>
-  <si>
-    <t>a3</t>
-  </si>
-  <si>
-    <t>b3</t>
-  </si>
-  <si>
-    <t>c3</t>
-  </si>
-  <si>
-    <t>a4</t>
-  </si>
-  <si>
-    <t>b4</t>
-  </si>
-  <si>
-    <t>c4</t>
-  </si>
-  <si>
-    <t>a5</t>
-  </si>
-  <si>
-    <t>b5</t>
-  </si>
-  <si>
-    <t>c5</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+  <si>
+    <t>編號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工編號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>性別</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>年齡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>戶籍地別</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王小明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>屏東縣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>A0002</t>
+  </si>
+  <si>
+    <t>A0003</t>
+  </si>
+  <si>
+    <t>林小強</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高雄市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>張小妹</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>台中市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>編號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>部門</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作類型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>研發</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>產品研發、開發</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>資訊</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>資訊設備維護</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生產</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>維持生產線運作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>品管</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽查生產線品質</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -127,9 +208,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -443,134 +527,178 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z33" sqref="Z33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="5.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="5.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2">
+        <v>34</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="1">
-        <v>34</v>
-      </c>
-      <c r="C1" s="1">
-        <v>56</v>
-      </c>
-      <c r="D1" s="1">
-        <v>78</v>
-      </c>
-      <c r="E1" s="1">
-        <f>SUM(A1:D1)</f>
-        <v>180</v>
-      </c>
-      <c r="F1" s="1">
-        <f>E1</f>
-        <v>180</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2">
+        <v>30</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1">
-        <v>33</v>
-      </c>
-      <c r="D2" s="1">
-        <v>44</v>
-      </c>
-      <c r="E2" s="1">
-        <f>SUM(A2:D2)</f>
-        <v>110</v>
-      </c>
-      <c r="F2" s="1">
-        <f>E2</f>
-        <v>110</v>
+      <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="2">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC437D86-BAF8-449B-82FE-BBE0D38E29D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="19.1796875" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
